--- a/art_collections/controllers/excel/purchase_order_supplier_email_item_details.xlsx
+++ b/art_collections/controllers/excel/purchase_order_supplier_email_item_details.xlsx
@@ -236,7 +236,7 @@
     <t xml:space="preserve">Qty In Selling Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">conversion_factor_uoms_selling_pack</t>
+    <t xml:space="preserve">qty_in_selling_pack_art</t>
   </si>
   <si>
     <t xml:space="preserve">Materials (Product Packing Dimensions)</t>
@@ -547,7 +547,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -716,7 +716,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -732,10 +732,10 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.2"/>
@@ -859,7 +859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1038,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
